--- a/Mortgage loan calculator1.xlsx
+++ b/Mortgage loan calculator1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chauh\source\repos\Rovin\CitiCollege\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rovin\repos\CitiCollege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE94722-42C3-4A1A-8792-5A42064209C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F01B51-FD1D-4CE5-A225-202080F26991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgage Calculator" sheetId="1" r:id="rId1"/>
@@ -40,14 +40,12 @@
     <definedName name="ValueOfHome">'Mortgage Calculator'!$C$4</definedName>
     <definedName name="ValuesEntered">IF(LoanAmount*(LEN(InterestRate)&gt;0)*DurationOfLoan*LoanStart*(LEN(PropertyTaxAmount)&gt;0)&gt;0,1,0)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -911,7 +909,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
